--- a/data/trans_orig/P57_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>304490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>274371</v>
+        <v>274266</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>335184</v>
+        <v>334167</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.270668200407968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2438951316487408</v>
+        <v>0.2438013586304444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2979533659891739</v>
+        <v>0.2970489440232417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>368</v>
@@ -763,19 +763,19 @@
         <v>406874</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>372118</v>
+        <v>373156</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>440182</v>
+        <v>439042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.324604921406426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2968769902182416</v>
+        <v>0.2977051048369664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3511785223662202</v>
+        <v>0.350268820245292</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>662</v>
@@ -784,19 +784,19 @@
         <v>711364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>666852</v>
+        <v>665591</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756680</v>
+        <v>764455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2990934608741251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2803783782256466</v>
+        <v>0.2798483861471762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3181465749625283</v>
+        <v>0.3214155390924155</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>820466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>789772</v>
+        <v>790789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>850585</v>
+        <v>850690</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7293317995920321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7020466340108261</v>
+        <v>0.7029510559767582</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7561048683512592</v>
+        <v>0.7561986413695556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>814</v>
@@ -834,19 +834,19 @@
         <v>846569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>813261</v>
+        <v>814401</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>881325</v>
+        <v>880287</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6753950785935739</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6488214776337796</v>
+        <v>0.649731179754708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7031230097817583</v>
+        <v>0.7022948951630335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1583</v>
@@ -855,19 +855,19 @@
         <v>1667036</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1621720</v>
+        <v>1613945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1711548</v>
+        <v>1712809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.700906539125875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6818534250374715</v>
+        <v>0.6785844609075844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7196216217743534</v>
+        <v>0.7201516138528237</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>153972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131721</v>
+        <v>133272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>177559</v>
+        <v>178361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1704442273921725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1458128140146987</v>
+        <v>0.1475291802744962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1965538336161171</v>
+        <v>0.197441930551531</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -980,19 +980,19 @@
         <v>215987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190429</v>
+        <v>188373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243106</v>
+        <v>242329</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2156355882124488</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1901191160790147</v>
+        <v>0.1880664136132695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2427112073184066</v>
+        <v>0.2419347747615708</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>347</v>
@@ -1001,19 +1001,19 @@
         <v>369959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>336078</v>
+        <v>334554</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>404976</v>
+        <v>408717</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1942055183517694</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1764203633191172</v>
+        <v>0.1756200902632007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2125875249572649</v>
+        <v>0.2145510541831682</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>749387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>725800</v>
+        <v>724998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>771638</v>
+        <v>770087</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8295557726078275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.803446166383883</v>
+        <v>0.8025580694484691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8541871859853016</v>
+        <v>0.8524708197255038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>750</v>
@@ -1051,19 +1051,19 @@
         <v>785641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>758522</v>
+        <v>759299</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>811199</v>
+        <v>813255</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7843644117875512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7572887926815933</v>
+        <v>0.7580652252384291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8098808839209851</v>
+        <v>0.8119335863867301</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1476</v>
@@ -1072,19 +1072,19 @@
         <v>1535028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1500011</v>
+        <v>1496270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1568909</v>
+        <v>1570433</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8057944816482306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.787412475042735</v>
+        <v>0.7854489458168318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8235796366808829</v>
+        <v>0.8243799097367993</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>104236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84936</v>
+        <v>85750</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125404</v>
+        <v>124770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1270007267853327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1034859308844855</v>
+        <v>0.1044783150236219</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1527926662416195</v>
+        <v>0.1520195842046816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1197,19 +1197,19 @@
         <v>132332</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111457</v>
+        <v>111722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155532</v>
+        <v>154645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1718926125039437</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1447771861036671</v>
+        <v>0.1451206527069663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2020278183967297</v>
+        <v>0.2008755272287873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>216</v>
@@ -1218,19 +1218,19 @@
         <v>236568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>209858</v>
+        <v>207941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>264498</v>
+        <v>267656</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1487284587953984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1319361010398281</v>
+        <v>0.1307312188895477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1662882396439908</v>
+        <v>0.168273453832455</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>716513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>695345</v>
+        <v>695979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>735813</v>
+        <v>734999</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8729992732146673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8472073337583805</v>
+        <v>0.8479804157953184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8965140691155145</v>
+        <v>0.8955216849763781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -1268,19 +1268,19 @@
         <v>637522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>614322</v>
+        <v>615209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658397</v>
+        <v>658132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8281073874960563</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7979721816032702</v>
+        <v>0.799124472771213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8552228138963329</v>
+        <v>0.8548793472930338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1295</v>
@@ -1289,19 +1289,19 @@
         <v>1354034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1326104</v>
+        <v>1322946</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1380744</v>
+        <v>1382661</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8512715412046017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8337117603560094</v>
+        <v>0.831726546167545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8680638989601721</v>
+        <v>0.8692687811104524</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>57615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45027</v>
+        <v>44479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73463</v>
+        <v>74675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1141781634591459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08923324832691532</v>
+        <v>0.08814753589205895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1455868708888266</v>
+        <v>0.1479878062366516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1414,19 +1414,19 @@
         <v>69547</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52888</v>
+        <v>53949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86709</v>
+        <v>88698</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1432686419444419</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1089512257519946</v>
+        <v>0.1111360635852113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1786228444721659</v>
+        <v>0.1827208948134404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1435,19 +1435,19 @@
         <v>127161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105152</v>
+        <v>106184</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150278</v>
+        <v>151822</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1284417180652542</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1062113618632624</v>
+        <v>0.1072532922986707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1517913835489841</v>
+        <v>0.1533510835140769</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>446987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>431139</v>
+        <v>429927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>459575</v>
+        <v>460123</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8858218365408541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8544131291111737</v>
+        <v>0.8520121937633485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9107667516730847</v>
+        <v>0.911852464107941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>391</v>
@@ -1485,19 +1485,19 @@
         <v>415881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398719</v>
+        <v>396730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>432540</v>
+        <v>431479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8567313580555581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8213771555278342</v>
+        <v>0.8172791051865597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8910487742480054</v>
+        <v>0.8888639364147887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>806</v>
@@ -1506,19 +1506,19 @@
         <v>862869</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>839752</v>
+        <v>838208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>884878</v>
+        <v>883846</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8715582819347458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.848208616451016</v>
+        <v>0.8466489164859232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8937886381367377</v>
+        <v>0.8927467077013294</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>620312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>573653</v>
+        <v>575492</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>665425</v>
+        <v>665056</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1849654851682076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1710524635674924</v>
+        <v>0.1716008352485656</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1984171552138365</v>
+        <v>0.1983072111001667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>741</v>
@@ -1631,19 +1631,19 @@
         <v>824739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>770603</v>
+        <v>772085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>876188</v>
+        <v>882045</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2349448151990353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2195230118646011</v>
+        <v>0.2199449600631606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2496008973124635</v>
+        <v>0.2512696595343056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1339</v>
@@ -1652,19 +1652,19 @@
         <v>1445052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1379811</v>
+        <v>1371383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1514898</v>
+        <v>1514964</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2105256037492996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2010208260794056</v>
+        <v>0.1997930085739409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2207012774969948</v>
+        <v>0.2207109413384282</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2733353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2688240</v>
+        <v>2688609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2780012</v>
+        <v>2778173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8150345148317925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8015828447861635</v>
+        <v>0.8016927888998335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8289475364325076</v>
+        <v>0.8283991647514345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2566</v>
@@ -1702,19 +1702,19 @@
         <v>2685615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2634166</v>
+        <v>2628309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2739751</v>
+        <v>2738269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7650551848009647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7503991026875364</v>
+        <v>0.7487303404656944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7804769881353987</v>
+        <v>0.7800550399368393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5160</v>
@@ -1723,19 +1723,19 @@
         <v>5418967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5349121</v>
+        <v>5349055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5484208</v>
+        <v>5492636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7894743962507004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7792987225030049</v>
+        <v>0.7792890586615716</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7989791739205941</v>
+        <v>0.8002069914260588</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>151097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129807</v>
+        <v>129904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>172024</v>
+        <v>171520</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.304642472948818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2617164999304133</v>
+        <v>0.2619124184217669</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3468347709602029</v>
+        <v>0.3458183299421235</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>316</v>
@@ -2088,19 +2088,19 @@
         <v>208689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185942</v>
+        <v>189420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229513</v>
+        <v>229544</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3378675501770511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.301039715457192</v>
+        <v>0.3066701976635168</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3715816561417897</v>
+        <v>0.3716307071681063</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>483</v>
@@ -2109,19 +2109,19 @@
         <v>359787</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332596</v>
+        <v>328959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>390321</v>
+        <v>387935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3230701803641863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2986544384761489</v>
+        <v>0.2953879869252465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3504885465079894</v>
+        <v>0.3483456223372185</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>344886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>323959</v>
+        <v>324463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>366176</v>
+        <v>366079</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.695357527051182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6531652290397972</v>
+        <v>0.6541816700578763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7382835000695868</v>
+        <v>0.738087581578233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>534</v>
@@ -2159,19 +2159,19 @@
         <v>408977</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>388153</v>
+        <v>388122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>431724</v>
+        <v>428246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6621324498229489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6284183438582105</v>
+        <v>0.6283692928318938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6989602845428078</v>
+        <v>0.6933298023364836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>819</v>
@@ -2180,19 +2180,19 @@
         <v>753862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>723328</v>
+        <v>725714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>781053</v>
+        <v>784690</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6769298196358137</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6495114534920107</v>
+        <v>0.6516543776627814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.701345561523851</v>
+        <v>0.7046120130747533</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>148892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128901</v>
+        <v>128241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170451</v>
+        <v>172759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1554199599842265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.13455230998163</v>
+        <v>0.13386272447089</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1779232001410063</v>
+        <v>0.1803332406483897</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>400</v>
@@ -2305,19 +2305,19 @@
         <v>242581</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221153</v>
+        <v>220335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265726</v>
+        <v>264271</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2190247710476053</v>
+        <v>0.2190247710476054</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1996774585429819</v>
+        <v>0.1989388655535471</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2399226473796786</v>
+        <v>0.2386091275828549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>590</v>
@@ -2326,19 +2326,19 @@
         <v>391473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>360727</v>
+        <v>361904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>424021</v>
+        <v>425309</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1895248914478858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1746397690575409</v>
+        <v>0.1752096340081406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2052823327343832</v>
+        <v>0.2059057733347556</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>809109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>787550</v>
+        <v>785242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>829100</v>
+        <v>829760</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8445800400157735</v>
+        <v>0.8445800400157734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8220767998589936</v>
+        <v>0.8196667593516102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.86544769001837</v>
+        <v>0.8661372755291098</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1193</v>
@@ -2376,19 +2376,19 @@
         <v>864968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>841823</v>
+        <v>843278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>886396</v>
+        <v>887214</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7809752289523948</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7600773526203217</v>
+        <v>0.7613908724171453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8003225414570184</v>
+        <v>0.8010611344464528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1910</v>
@@ -2397,19 +2397,19 @@
         <v>1674077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1641529</v>
+        <v>1640241</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1704823</v>
+        <v>1703646</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.810475108552114</v>
+        <v>0.8104751085521142</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7947176672656169</v>
+        <v>0.7940942266652443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8253602309424591</v>
+        <v>0.8247903659918594</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>93722</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77804</v>
+        <v>76869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113019</v>
+        <v>112585</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08984022800264953</v>
+        <v>0.08984022800264956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07458132919494408</v>
+        <v>0.0736848947326252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1083375615266677</v>
+        <v>0.107920925722622</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -2522,19 +2522,19 @@
         <v>121538</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104721</v>
+        <v>105878</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139577</v>
+        <v>140542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1164633800017295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1003491503303568</v>
+        <v>0.1014572481713836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1337491702101988</v>
+        <v>0.1346742495084517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>314</v>
@@ -2543,19 +2543,19 @@
         <v>215260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192104</v>
+        <v>193738</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>241132</v>
+        <v>241032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1031540830517135</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09205721261493849</v>
+        <v>0.09284044061806709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1155521673315519</v>
+        <v>0.1155041922718397</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>949491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>930194</v>
+        <v>930628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>965409</v>
+        <v>966344</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9101597719973503</v>
+        <v>0.9101597719973504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8916624384733323</v>
+        <v>0.892079074277378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9254186708050557</v>
+        <v>0.9263151052673748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1317</v>
@@ -2593,19 +2593,19 @@
         <v>922032</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>903993</v>
+        <v>903028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>938849</v>
+        <v>937692</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8835366199982705</v>
+        <v>0.8835366199982706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8662508297898012</v>
+        <v>0.8653257504915484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8996508496696434</v>
+        <v>0.8985427518286165</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2220</v>
@@ -2614,19 +2614,19 @@
         <v>1871524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1845652</v>
+        <v>1845752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1894680</v>
+        <v>1893046</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8968459169482865</v>
+        <v>0.8968459169482866</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8844478326684482</v>
+        <v>0.8844958077281602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9079427873850615</v>
+        <v>0.9071595593819328</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>68017</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52077</v>
+        <v>53497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87459</v>
+        <v>88677</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06975278666435697</v>
+        <v>0.06975278666435698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05340614596922676</v>
+        <v>0.05486286702620657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08969095992225511</v>
+        <v>0.09094037859352112</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -2739,19 +2739,19 @@
         <v>63116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49889</v>
+        <v>50895</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75240</v>
+        <v>75701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06958124687035565</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0549991564527425</v>
+        <v>0.05610865919085724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08294790078009437</v>
+        <v>0.08345528287623276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -2760,19 +2760,19 @@
         <v>131132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111023</v>
+        <v>111797</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155645</v>
+        <v>153959</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0696701167822464</v>
+        <v>0.06967011678224641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05898610114100186</v>
+        <v>0.05939731280122589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08269349857396341</v>
+        <v>0.08179800221862066</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>907093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>887651</v>
+        <v>886433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923033</v>
+        <v>921613</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9302472133356431</v>
+        <v>0.930247213335643</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9103090400777449</v>
+        <v>0.9090596214064793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9465938540307735</v>
+        <v>0.9451371329737934</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1215</v>
@@ -2810,19 +2810,19 @@
         <v>843965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>831841</v>
+        <v>831380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>857192</v>
+        <v>856186</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9304187531296444</v>
+        <v>0.9304187531296443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9170520992199055</v>
+        <v>0.9165447171237675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9450008435472571</v>
+        <v>0.9438913408091435</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2092</v>
@@ -2831,19 +2831,19 @@
         <v>1751059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1726546</v>
+        <v>1728232</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1771168</v>
+        <v>1770394</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9303298832177535</v>
+        <v>0.9303298832177538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9173065014260368</v>
+        <v>0.9182019977813793</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9410138988589983</v>
+        <v>0.940602687198774</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>461729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>424007</v>
+        <v>427272</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>506130</v>
+        <v>504056</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1329747311843841</v>
+        <v>0.132974731184384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1221110960340765</v>
+        <v>0.1230512047507428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1457618101336341</v>
+        <v>0.1451646977773091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1011</v>
@@ -2956,19 +2956,19 @@
         <v>635923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>596447</v>
+        <v>598977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>675269</v>
+        <v>675956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1729996155164029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1622603729236012</v>
+        <v>0.162948558749583</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1837032653176262</v>
+        <v>0.1838901732465734</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1559</v>
@@ -2977,19 +2977,19 @@
         <v>1097652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1049124</v>
+        <v>1040807</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1151937</v>
+        <v>1155090</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1535570695818638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1467681334687121</v>
+        <v>0.1456046020417996</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1611512522951117</v>
+        <v>0.1615923662908565</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3010578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2966177</v>
+        <v>2968251</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3048300</v>
+        <v>3045035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.867025268815616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8542381898663659</v>
+        <v>0.854835302222691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8778889039659232</v>
+        <v>0.8769487952492574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4259</v>
@@ -3027,19 +3027,19 @@
         <v>3039943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3000597</v>
+        <v>2999910</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3079419</v>
+        <v>3076889</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8270003844835971</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8162967346823737</v>
+        <v>0.8161098267534267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8377396270763988</v>
+        <v>0.8370514412504171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7041</v>
@@ -3048,19 +3048,19 @@
         <v>6050521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5996236</v>
+        <v>5993083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6099049</v>
+        <v>6107366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8464429304181362</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8388487477048883</v>
+        <v>0.8384076337091435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8532318665312879</v>
+        <v>0.8543953979582004</v>
       </c>
     </row>
     <row r="18">
